--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzalodehermenegildo/gonz/CS/Serpent/Benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F5ADFA-FE2F-2C4B-A489-5279EAF9E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6791DD-C2D5-4018-B5EA-8520EA5D0A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="520" windowWidth="28040" windowHeight="16940" xr2:uid="{9707B722-6BCD-7046-A6A7-0DF857F1BF2E}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{9707B722-6BCD-7046-A6A7-0DF857F1BF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Input Size</t>
   </si>
@@ -132,6 +121,12 @@
       <t xml:space="preserve">: </t>
     </r>
   </si>
+  <si>
+    <t>NQUEENS</t>
+  </si>
+  <si>
+    <t>Serpent (10 iters)</t>
+  </si>
 </sst>
 </file>
 
@@ -218,9 +213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,22 +509,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3510F375-F8C5-9F4E-833F-79E6B3674F58}">
-  <dimension ref="A1:L1269"/>
+  <dimension ref="A1:L1293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="J1265" sqref="J1265"/>
+    <sheetView tabSelected="1" topLeftCell="A1267" zoomScale="146" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="A1279" sqref="A1279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.875" style="3"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="3"/>
+    <col min="7" max="9" width="10.875" style="3"/>
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="11" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -29765,39 +29760,39 @@
       </c>
       <c r="B1014" s="3">
         <f>AVERAGE(B1015:B1514)</f>
-        <v>1</v>
+        <v>3.6818666666666666</v>
       </c>
       <c r="C1014" s="3">
         <f>AVERAGE(C1015:C1514)</f>
-        <v>10</v>
+        <v>7.6625333333333332</v>
       </c>
       <c r="D1014" s="3">
         <f>AVERAGE(D1015:D1514)</f>
-        <v>20</v>
+        <v>88.637733333333315</v>
       </c>
       <c r="F1014" s="3">
         <f>AVERAGE(F1015:F1514)</f>
-        <v>0.62968127490039971</v>
+        <v>0.6644957312252977</v>
       </c>
       <c r="G1014" s="3">
         <f>AVERAGE(G1015:G1514)</f>
-        <v>6.3360557768924544</v>
+        <v>6.3398102766798665</v>
       </c>
       <c r="H1014" s="3">
         <f>AVERAGE(H1015:H1514)</f>
-        <v>13.117430278884415</v>
+        <v>14.41486758893276</v>
       </c>
       <c r="J1014" s="3">
         <f>AVERAGE(J1015:J1514)</f>
-        <v>4.0909362549800848E-2</v>
+        <v>0.10183352713178299</v>
       </c>
       <c r="K1014" s="3">
         <f>AVERAGE(K1015:K1514)</f>
-        <v>0.38517131474103378</v>
+        <v>0.44450697674418399</v>
       </c>
       <c r="L1014" s="3">
         <f>AVERAGE(L1015:L1514)</f>
-        <v>0.7781484063745</v>
+        <v>0.8384498062015483</v>
       </c>
     </row>
     <row r="1015" spans="1:12" outlineLevel="1">
@@ -34851,8 +34846,149 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1280" spans="1:12">
+      <c r="A1280" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1280" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1280" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1280" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:12">
+      <c r="A1281" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1281" s="2">
+        <v>10</v>
+      </c>
+      <c r="C1281" s="2">
+        <v>12</v>
+      </c>
+      <c r="D1281" s="2">
+        <v>15</v>
+      </c>
+      <c r="E1281" s="2"/>
+      <c r="F1281" s="2">
+        <v>10</v>
+      </c>
+      <c r="G1281" s="2">
+        <v>12</v>
+      </c>
+      <c r="H1281" s="2">
+        <v>15</v>
+      </c>
+      <c r="I1281" s="2"/>
+      <c r="J1281" s="2">
+        <v>10</v>
+      </c>
+      <c r="K1281" s="2">
+        <v>12</v>
+      </c>
+      <c r="L1281" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:12">
+      <c r="A1282" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1282" s="3">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="C1282" s="3">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="D1282" s="3">
+        <v>230.91319999999999</v>
+      </c>
+      <c r="F1282" s="3">
+        <v>6.7419999999999994E-2</v>
+      </c>
+      <c r="G1282" s="3">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="H1282" s="3">
+        <v>339.48649999999998</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:12">
+      <c r="J1288" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K1288" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="L1288" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:12">
+      <c r="J1289" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="K1289" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="L1289" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:12">
+      <c r="J1290" s="3">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="K1290" s="3">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="L1290" s="3">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:12">
+      <c r="J1291" s="3">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="K1291" s="3">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="L1291" s="3">
+        <v>1.2190000000000001</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:12">
+      <c r="J1292" s="3">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K1292" s="3">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L1292" s="3">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:12">
+      <c r="J1293" s="3">
+        <f t="shared" ref="C1293:L1293" si="0">AVERAGE(J1288,J1289,J1290,J1291,J1292)</f>
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="K1293" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="L1293" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0007999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>